--- a/用例数据/沪A/公司债/公司债现券交易/测试结果.xlsx
+++ b/用例数据/沪A/公司债/公司债现券交易/测试结果.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="stklist" sheetId="2" r:id="rId2"/>
+    <sheet name="tradinglog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="398">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1201,6 +1202,26 @@
   </si>
   <si>
     <t>stklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交收后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIALNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_001_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_002_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1536,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4129,7 +4150,7 @@
     </row>
     <row r="26" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>393</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
@@ -4392,7 +4413,7 @@
     </row>
     <row r="27" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
@@ -4653,8 +4674,532 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BQ28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BR28" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BT28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CA28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CG28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CH28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CI28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BQ29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BR29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BS29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BT29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CA29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CG29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CH29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CI29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="30" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5972,7 +6517,7 @@
   <dimension ref="A1:CH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6266,7 +6811,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>383</v>
@@ -6526,7 +7071,7 @@
         <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>388</v>
@@ -6761,4 +7306,1116 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>